--- a/Carrot-order.xlsx
+++ b/Carrot-order.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>部品名</t>
     <rPh sb="0" eb="2">
@@ -163,9 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://jp.rs-online.com/web/p/products/0160389/</t>
-  </si>
-  <si>
     <t>51Ω　チップ抵抗</t>
     <rPh sb="7" eb="9">
       <t>テイコウ</t>
@@ -199,6 +196,407 @@
   <si>
     <t>50MHzクリスタル</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-09931/</t>
+  </si>
+  <si>
+    <t>Nch MOSFET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-04809/</t>
+  </si>
+  <si>
+    <t>LANコネクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-14184/</t>
+  </si>
+  <si>
+    <t>DCファン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-12900/</t>
+  </si>
+  <si>
+    <t>ポリスイッチ350mA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-13077/</t>
+  </si>
+  <si>
+    <t>ポリスイッチ0.4A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-12815/</t>
+  </si>
+  <si>
+    <t>VH2ピン　線側</t>
+    <rPh sb="6" eb="7">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-12811/</t>
+  </si>
+  <si>
+    <t>VH2ピン　基板側</t>
+    <rPh sb="6" eb="8">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VH3ピン　基板側</t>
+    <rPh sb="6" eb="8">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-12816/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-12812/</t>
+  </si>
+  <si>
+    <t>VH3ピン　線側</t>
+    <rPh sb="6" eb="7">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-12819/</t>
+  </si>
+  <si>
+    <t>VH コンタクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-13605/</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-13313/</t>
+  </si>
+  <si>
+    <t>22pF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-08240/</t>
+  </si>
+  <si>
+    <t>22uF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-13388/</t>
+  </si>
+  <si>
+    <t>10uF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-06855/</t>
+  </si>
+  <si>
+    <t>100uF　チップ電解</t>
+    <rPh sb="9" eb="11">
+      <t>デンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03650/</t>
+  </si>
+  <si>
+    <t>タクトスイッチ黄色</t>
+    <rPh sb="7" eb="9">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03646/</t>
+  </si>
+  <si>
+    <t>タクトスイッチ赤色</t>
+    <rPh sb="7" eb="9">
+      <t>アカイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-04663/</t>
+  </si>
+  <si>
+    <t>4.7kΩ　アレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-04119/</t>
+  </si>
+  <si>
+    <t>圧電ブザー</t>
+    <rPh sb="0" eb="2">
+      <t>アツデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-08667/</t>
+  </si>
+  <si>
+    <t>水晶発振子 8MHz</t>
+    <rPh sb="0" eb="2">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-12723/</t>
+  </si>
+  <si>
+    <t>スライドスイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-06730/</t>
+  </si>
+  <si>
+    <t>DCジャック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-10901/</t>
+  </si>
+  <si>
+    <t>ボックスヘッダ　7*2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gM-06187/</t>
+  </si>
+  <si>
+    <t>ムラタDCDCコンバータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-11551/</t>
+  </si>
+  <si>
+    <t>USBA ホスト側</t>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-01032/</t>
+  </si>
+  <si>
+    <t>20kΩ　多回転　半固定抵抗</t>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-10702/</t>
+  </si>
+  <si>
+    <t>RaspberryPi コネクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表面実装タクトスイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-02846/</t>
+  </si>
+  <si>
+    <t>Pch MOSFET J334</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-03668/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-06185/</t>
+  </si>
+  <si>
+    <t>2mmピッチ　ピンソケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-00017/</t>
+  </si>
+  <si>
+    <t>ICソケット 8P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-01306/</t>
+  </si>
+  <si>
+    <t>ターミナルブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-02009/</t>
+  </si>
+  <si>
+    <t>緑色LED入り　タクトスイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ミドリイロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-02010/</t>
+  </si>
+  <si>
+    <t>赤色LED入り　タクトスイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-07059/</t>
+  </si>
+  <si>
+    <t>キースイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-07246/</t>
+  </si>
+  <si>
+    <t>緑色LED トグルスイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ミドリイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-09992/</t>
+  </si>
+  <si>
+    <t>3ピンDIPスイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-13219/</t>
+  </si>
+  <si>
+    <t>STMF405</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-05318/</t>
+  </si>
+  <si>
+    <t>LCD LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-13311/</t>
+  </si>
+  <si>
+    <t>FT230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリスイッチ350mA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-03986/</t>
+  </si>
+  <si>
+    <t>白色チップLED</t>
+    <rPh sb="0" eb="2">
+      <t>シロイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-03982/</t>
+  </si>
+  <si>
+    <t>青色チップLED</t>
+    <rPh sb="0" eb="2">
+      <t>アオイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-03978/</t>
+  </si>
+  <si>
+    <t>赤色チップLED</t>
+    <rPh sb="0" eb="2">
+      <t>アカイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.monotaro.com/g/04248178/?t.q=51%83%B6%81%40%83%60%83b%83v</t>
   </si>
 </sst>
 </file>
@@ -306,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,9 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -634,7 +1029,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -644,8 +1039,8 @@
     <col min="4" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="9" customWidth="1"/>
     <col min="13" max="13" width="13.75" customWidth="1"/>
     <col min="14" max="14" width="15.375" customWidth="1"/>
   </cols>
@@ -675,10 +1070,10 @@
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="7" t="s">
@@ -695,85 +1090,102 @@
       </c>
       <c r="O1" s="6">
         <f>SUMIF(L2:L111,"&lt;&gt;#DIV/0!")</f>
-        <v>0</v>
+        <v>20125.440000000002</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="C2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
       <c r="F2" s="3">
         <f>D2*E2</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <f>F2/C2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="H2">
+        <v>88</v>
+      </c>
+      <c r="I2" s="11">
         <f>(F2+H2)/C2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <f>F2+H2</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2">
-        <f>(32.2*1.08)</f>
-        <v>34.776000000000003</v>
+        <v>599</v>
       </c>
       <c r="L2">
         <f>K2*I2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" t="e">
+        <v>599</v>
+      </c>
+      <c r="M2">
         <f>L2/E2</f>
-        <v>#DIV/0!</v>
+        <v>299.5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F33" si="0">D3*E3</f>
-        <v>0</v>
+        <f t="shared" ref="F3:F64" si="0">D3*E3</f>
+        <v>2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G33" si="1">F3/C3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
+        <f t="shared" ref="G3:G64" si="1">F3/C3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
         <f t="shared" ref="I3:I10" si="2">(F3+H3)/C3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <f t="shared" ref="J3:J33" si="3">F3+H3</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J64" si="3">F3+H3</f>
+        <v>2</v>
       </c>
       <c r="K3">
         <f>(584*1.08)</f>
         <v>630.72</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L33" si="4">K3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" t="e">
-        <f t="shared" ref="M3:M33" si="5">L3/E3</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="L3:L64" si="4">K3*I3</f>
+        <v>1261.44</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M64" si="5">L3/E3</f>
+        <v>630.72</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
@@ -786,11 +1198,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="12" t="e">
+      <c r="I4" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -813,11 +1225,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="12" t="e">
+      <c r="I5" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -840,11 +1252,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="12" t="e">
+      <c r="I6" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -859,852 +1271,2410 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>90</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>360</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>150</v>
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>600</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <f>(F9+H9)/C9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>300</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>300</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="12" t="e">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="12" t="e">
-        <f t="shared" ref="I6:I33" si="6">(F11+H11)/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" ref="I11:I64" si="6">(F11+H11)/C11</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>280</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>160</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>120</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>150</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>150</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L26" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="H27">
+        <v>96</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>40</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L29" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B30" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>30</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
       <c r="F31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L31" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>130</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L32" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B33" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>25</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L33" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>600</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>120</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>150</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>150</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>30</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>150</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>150</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>200</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>80</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L47" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>1000</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>200</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <v>220</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>4400</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>200</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>200</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>200</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L56" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L57" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I58" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I59" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L59" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L60" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L61" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I62" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L62" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L63" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B64" s="2"/>
+      <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L64" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="2"/>
@@ -1731,8 +3701,51 @@
     <hyperlink ref="B8" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B16" r:id="rId9"/>
+    <hyperlink ref="B17" r:id="rId10"/>
+    <hyperlink ref="B18" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B23" r:id="rId16"/>
+    <hyperlink ref="B24" r:id="rId17"/>
+    <hyperlink ref="B25" r:id="rId18"/>
+    <hyperlink ref="B26" r:id="rId19"/>
+    <hyperlink ref="B27" r:id="rId20"/>
+    <hyperlink ref="B28" r:id="rId21"/>
+    <hyperlink ref="B29" r:id="rId22"/>
+    <hyperlink ref="B30" r:id="rId23"/>
+    <hyperlink ref="B31" r:id="rId24"/>
+    <hyperlink ref="B32" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B36" r:id="rId29"/>
+    <hyperlink ref="B38" r:id="rId30"/>
+    <hyperlink ref="B39" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B40" r:id="rId33"/>
+    <hyperlink ref="B41" r:id="rId34"/>
+    <hyperlink ref="B42" r:id="rId35"/>
+    <hyperlink ref="B43" r:id="rId36"/>
+    <hyperlink ref="B44" r:id="rId37"/>
+    <hyperlink ref="B45" r:id="rId38"/>
+    <hyperlink ref="B46" r:id="rId39"/>
+    <hyperlink ref="B48" r:id="rId40"/>
+    <hyperlink ref="B50" r:id="rId41"/>
+    <hyperlink ref="B51" r:id="rId42"/>
+    <hyperlink ref="B52" r:id="rId43"/>
+    <hyperlink ref="B53" r:id="rId44"/>
+    <hyperlink ref="B54" r:id="rId45"/>
+    <hyperlink ref="B55" r:id="rId46"/>
+    <hyperlink ref="B2" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/Carrot-order.xlsx
+++ b/Carrot-order.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t>部品名</t>
     <rPh sb="0" eb="2">
@@ -198,9 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://akizukidenshi.com/catalog/g/gI-09931/</t>
-  </si>
-  <si>
     <t>Nch MOSFET</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -224,9 +221,6 @@
   <si>
     <t>ポリスイッチ350mA</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-13077/</t>
   </si>
   <si>
     <t>ポリスイッチ0.4A</t>
@@ -597,13 +591,56 @@
   </si>
   <si>
     <t>https://www.monotaro.com/g/04248178/?t.q=51%83%B6%81%40%83%60%83b%83v</t>
+  </si>
+  <si>
+    <t>ある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４こある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あったと。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1個ある</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-09931/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-13077/</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,8 +673,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +705,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -696,15 +746,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,8 +797,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1029,7 +1089,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1041,6 +1101,7 @@
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="11" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9" style="14"/>
     <col min="13" max="13" width="13.75" customWidth="1"/>
     <col min="14" max="14" width="15.375" customWidth="1"/>
   </cols>
@@ -1079,7 +1140,7 @@
       <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -1090,7 +1151,7 @@
       </c>
       <c r="O1" s="6">
         <f>SUMIF(L2:L111,"&lt;&gt;#DIV/0!")</f>
-        <v>20125.440000000002</v>
+        <v>16440.440000000002</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -1098,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1131,7 +1192,7 @@
       <c r="K2">
         <v>599</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="14">
         <f>K2*I2</f>
         <v>599</v>
       </c>
@@ -1179,12 +1240,12 @@
         <f>(584*1.08)</f>
         <v>630.72</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="14">
         <f t="shared" ref="L3:L64" si="4">K3*I3</f>
         <v>1261.44</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M64" si="5">L3/E3</f>
+        <f t="shared" ref="M3:M65" si="5">L3/E3</f>
         <v>630.72</v>
       </c>
     </row>
@@ -1206,7 +1267,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L4" t="e">
+      <c r="L4" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1233,7 +1294,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" t="e">
+      <c r="L5" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1260,7 +1321,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" t="e">
+      <c r="L6" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1307,7 +1368,7 @@
       <c r="K7">
         <v>90</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="14">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
@@ -1354,7 +1415,7 @@
       <c r="K8">
         <v>150</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="14">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
@@ -1401,7 +1462,7 @@
       <c r="K9">
         <v>300</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="14">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
@@ -1412,10 +1473,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1448,7 +1509,7 @@
       <c r="K10">
         <v>50</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="14">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
@@ -1459,10 +1520,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1492,7 +1553,7 @@
       <c r="K11">
         <v>200</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="14">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -1503,10 +1564,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1536,7 +1597,7 @@
       <c r="K12">
         <v>280</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="14">
         <f t="shared" si="4"/>
         <v>560</v>
       </c>
@@ -1547,10 +1608,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1583,7 +1644,7 @@
       <c r="K13">
         <v>100</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="14">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
@@ -1594,10 +1655,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1630,7 +1691,7 @@
       <c r="K14">
         <v>30</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="14">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
@@ -1641,10 +1702,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1677,7 +1738,7 @@
       <c r="K15">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="14">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
@@ -1688,48 +1749,54 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K16">
         <v>7</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L16" s="14">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1762,7 +1829,7 @@
       <c r="K17">
         <v>10</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="14">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
@@ -1771,88 +1838,100 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>8</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M18" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L18" s="14">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K19">
         <v>50</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L19" s="14">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1885,7 +1964,7 @@
       <c r="K20">
         <v>160</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="14">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
@@ -1894,12 +1973,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>40</v>
@@ -1922,8 +2001,7 @@
         <v>36</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="3"/>
@@ -1932,21 +2010,24 @@
       <c r="K21">
         <v>100</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="4"/>
-        <v>100</v>
+      <c r="L21" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1979,7 +2060,7 @@
       <c r="K22">
         <v>120</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="14">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -1988,12 +2069,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -2016,8 +2097,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="3"/>
@@ -2026,21 +2106,24 @@
       <c r="K23">
         <v>150</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
-        <v>150</v>
+      <c r="L23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2063,8 +2146,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="3"/>
@@ -2073,21 +2155,24 @@
       <c r="K24">
         <v>150</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="4"/>
-        <v>1050</v>
+      <c r="L24" s="14">
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+      <c r="N24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2107,8 +2192,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="3"/>
@@ -2117,21 +2201,24 @@
       <c r="K25">
         <v>10</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="4"/>
-        <v>20</v>
+      <c r="L25" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2151,8 +2238,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="3"/>
@@ -2161,21 +2247,24 @@
       <c r="K26">
         <v>10</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="4"/>
-        <v>20</v>
+      <c r="L26" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -2198,8 +2287,7 @@
         <v>96</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="3"/>
@@ -2208,21 +2296,24 @@
       <c r="K27">
         <v>100</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="4"/>
-        <v>100</v>
+      <c r="L27" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2242,34 +2333,33 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28">
         <v>40</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="4"/>
-        <v>160</v>
+      <c r="L28" s="14">
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2302,7 +2392,7 @@
       <c r="K29">
         <v>30</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="14">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
@@ -2311,12 +2401,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2349,7 +2439,7 @@
       <c r="K30">
         <v>25</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="14">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
@@ -2358,12 +2448,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2383,8 +2473,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="3"/>
@@ -2393,21 +2482,24 @@
       <c r="K31">
         <v>130</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="4"/>
-        <v>260</v>
+      <c r="L31" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2430,8 +2522,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="3"/>
@@ -2440,21 +2531,24 @@
       <c r="K32">
         <v>25</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="4"/>
-        <v>175</v>
+      <c r="L32" s="14">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2474,8 +2568,7 @@
         <v>4</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="3"/>
@@ -2484,21 +2577,24 @@
       <c r="K33">
         <v>600</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="4"/>
-        <v>2400</v>
+      <c r="L33" s="14">
+        <f t="shared" si="4"/>
+        <v>1800</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>900</v>
+      </c>
+      <c r="N33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2528,7 +2624,7 @@
       <c r="K34">
         <v>50</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="14">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
@@ -2537,12 +2633,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2562,8 +2658,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="11">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="3"/>
@@ -2572,21 +2667,24 @@
       <c r="K35">
         <v>120</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="4"/>
-        <v>480</v>
+      <c r="L35" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2616,7 +2714,7 @@
       <c r="K36">
         <v>150</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="14">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
@@ -2625,12 +2723,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -2663,7 +2761,7 @@
       <c r="K37">
         <v>100</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="14">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
@@ -2672,12 +2770,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2707,7 +2805,7 @@
       <c r="K38">
         <v>150</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="14">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
@@ -2716,12 +2814,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2751,7 +2849,7 @@
       <c r="K39">
         <v>30</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="14">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -2760,12 +2858,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -2798,7 +2896,7 @@
       <c r="K40">
         <v>100</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="14">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
@@ -2807,12 +2905,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2842,7 +2940,7 @@
       <c r="K41">
         <v>20</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="14">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
@@ -2851,12 +2949,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2886,7 +2984,7 @@
       <c r="K42">
         <v>150</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="14">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
@@ -2895,12 +2993,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2930,7 +3028,7 @@
       <c r="K43">
         <v>150</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="14">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
@@ -2939,12 +3037,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2974,7 +3072,7 @@
       <c r="K44">
         <v>100</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="14">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
@@ -2983,12 +3081,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3018,7 +3116,7 @@
       <c r="K45">
         <v>200</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="14">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
@@ -3027,12 +3125,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3062,7 +3160,7 @@
       <c r="K46">
         <v>80</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="14">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -3070,8 +3168,11 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B47" s="2"/>
       <c r="F47" s="3">
         <f t="shared" si="0"/>
@@ -3089,7 +3190,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L47" t="e">
+      <c r="L47" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3098,12 +3199,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3133,7 +3234,7 @@
       <c r="K48">
         <v>1000</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="14">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
@@ -3142,7 +3243,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
       <c r="F49" s="3">
         <f t="shared" si="0"/>
@@ -3160,7 +3261,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L49" t="e">
+      <c r="L49" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3169,12 +3270,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -3183,86 +3284,89 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.6</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
       </c>
       <c r="I50" s="11">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K50">
         <v>200</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="4"/>
+      <c r="L50" s="14">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>10</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="5"/>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>20</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J51" s="9">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K51">
         <v>220</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="4"/>
-        <v>4400</v>
+      <c r="L51" s="14">
+        <f t="shared" si="4"/>
+        <v>2200</v>
       </c>
       <c r="M51">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -3271,42 +3375,45 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1.4</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
       </c>
       <c r="I52" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52" s="9">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K52">
         <v>100</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="4"/>
-        <v>400</v>
+      <c r="L52" s="14">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="M52">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+        <v>28.571428571428573</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -3325,32 +3432,35 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
+      <c r="H53">
+        <v>19</v>
+      </c>
       <c r="I53" s="11">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J53" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K53">
         <v>200</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="L53" s="14">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="M53">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -3369,32 +3479,37 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
+      <c r="H54">
+        <v>19</v>
+      </c>
       <c r="I54" s="11">
-        <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J54" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K54">
         <v>200</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="L54" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M54">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C55">
         <v>20</v>
@@ -3413,27 +3528,32 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
+      <c r="H55">
+        <v>19</v>
+      </c>
       <c r="I55" s="11">
-        <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J55" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K55">
         <v>200</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="L55" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M55">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B56" s="2"/>
       <c r="F56" s="3">
         <f t="shared" si="0"/>
@@ -3451,7 +3571,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L56" t="e">
+      <c r="L56" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3460,7 +3580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B57" s="2"/>
       <c r="F57" s="3">
         <f t="shared" si="0"/>
@@ -3478,7 +3598,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L57" t="e">
+      <c r="L57" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3487,7 +3607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B58" s="2"/>
       <c r="F58" s="3">
         <f t="shared" si="0"/>
@@ -3505,7 +3625,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L58" t="e">
+      <c r="L58" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3514,7 +3634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B59" s="2"/>
       <c r="F59" s="3">
         <f t="shared" si="0"/>
@@ -3532,7 +3652,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L59" t="e">
+      <c r="L59" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3541,7 +3661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B60" s="2"/>
       <c r="F60" s="3">
         <f t="shared" si="0"/>
@@ -3559,7 +3679,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L60" t="e">
+      <c r="L60" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3568,7 +3688,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B61" s="2"/>
       <c r="F61" s="3">
         <f t="shared" si="0"/>
@@ -3586,7 +3706,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L61" t="e">
+      <c r="L61" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3595,7 +3715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B62" s="2"/>
       <c r="F62" s="3">
         <f t="shared" si="0"/>
@@ -3613,7 +3733,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L62" t="e">
+      <c r="L62" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3622,7 +3742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B63" s="2"/>
       <c r="F63" s="3">
         <f t="shared" si="0"/>
@@ -3640,7 +3760,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L63" t="e">
+      <c r="L63" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3649,7 +3769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B64" s="2"/>
       <c r="F64" s="3">
         <f t="shared" si="0"/>
@@ -3667,7 +3787,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L64" t="e">
+      <c r="L64" s="14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3676,22 +3796,30 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="L65" s="14" t="e">
+        <f>SUM(L7:L53)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B70" s="2"/>
     </row>
   </sheetData>
@@ -3744,8 +3872,10 @@
     <hyperlink ref="B54" r:id="rId45"/>
     <hyperlink ref="B55" r:id="rId46"/>
     <hyperlink ref="B2" r:id="rId47"/>
+    <hyperlink ref="B10" r:id="rId48"/>
+    <hyperlink ref="B14" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>